--- a/biology/Botanique/Trillium_rivale/Trillium_rivale.xlsx
+++ b/biology/Botanique/Trillium_rivale/Trillium_rivale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trillium rivale (Syn. Pseudotrillium rivale (S. Wats.) S.B. Farmer) est une plante herbacée, vivace et rhizomateuse de la famille des Liliaceae (classification classique) ou des Melanthiaceae (classification APG II, 2003).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de l’ouest de l’Amérique du Nord, fleurit au printemps dans les lisières des forêts, les broussailles et le long des rivières.
 Les feuilles distinctement pétiolées ovales lancéolées sont acuminées.
@@ -545,7 +559,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sud-ouest de l’Oregon et nord-ouest de la Californie, dans les Monts Siskyiou et Klamath.
 </t>
@@ -576,7 +592,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom en anglais est Brook Wake-Robin.
 ‘Purple Heart’ est une sélection à piqueté plus marqué.
